--- a/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>110,57; 134,24</t>
+          <t>109,94; 132,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>137,91; 167,8</t>
+          <t>138,5; 168,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>122,7; 150,57</t>
+          <t>121,82; 151,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>152,5; 182,46</t>
+          <t>152,52; 182,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,86; 122,85</t>
+          <t>92,46; 123,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,62; 125,39</t>
+          <t>95,64; 123,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>108,95; 138,4</t>
+          <t>108,78; 139,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>135,74; 160,88</t>
+          <t>136,02; 162,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>106,83; 124,61</t>
+          <t>105,96; 125,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>123,63; 147,69</t>
+          <t>124,56; 147,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>120,94; 142,0</t>
+          <t>120,91; 141,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>148,66; 168,52</t>
+          <t>148,42; 168,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>110,97; 139,93</t>
+          <t>109,86; 140,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>130,18; 159,65</t>
+          <t>129,48; 158,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>117,79; 147,5</t>
+          <t>118,0; 147,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>147,51; 181,43</t>
+          <t>146,79; 180,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,59; 74,04</t>
+          <t>54,47; 73,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,15; 122,48</t>
+          <t>89,98; 125,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>97,46; 132,08</t>
+          <t>98,74; 133,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>113,39; 137,49</t>
+          <t>113,98; 138,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,24; 107,13</t>
+          <t>87,16; 106,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117,61; 141,1</t>
+          <t>117,26; 139,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>112,59; 135,58</t>
+          <t>113,92; 137,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>135,96; 157,71</t>
+          <t>135,97; 157,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>104,0; 125,91</t>
+          <t>104,63; 126,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>115,8; 145,43</t>
+          <t>115,78; 144,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>132,53; 163,87</t>
+          <t>131,19; 164,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,86; 161,18</t>
+          <t>19,66; 159,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,86; 93,69</t>
+          <t>52,03; 93,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,99; 114,33</t>
+          <t>84,27; 114,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,34; 134,78</t>
+          <t>89,31; 135,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>137,22; 191,12</t>
+          <t>132,62; 188,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>99,58; 119,93</t>
+          <t>100,13; 120,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>110,11; 132,35</t>
+          <t>109,84; 133,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>125,11; 152,66</t>
+          <t>124,35; 151,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,49; 159,85</t>
+          <t>26,64; 160,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,03; 104,22</t>
+          <t>88,01; 103,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,15; 116,8</t>
+          <t>94,91; 117,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,3; 109,13</t>
+          <t>89,67; 109,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>119,2; 140,72</t>
+          <t>118,61; 141,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,76; 73,51</t>
+          <t>53,9; 75,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,94; 68,93</t>
+          <t>51,95; 68,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,25; 76,62</t>
+          <t>61,06; 76,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,55; 104,81</t>
+          <t>89,47; 105,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,5; 92,4</t>
+          <t>79,74; 92,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79,22; 94,02</t>
+          <t>79,28; 94,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,84; 91,79</t>
+          <t>78,73; 92,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>108,53; 122,71</t>
+          <t>109,09; 124,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,12; 77,78</t>
+          <t>54,53; 78,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,2; 114,75</t>
+          <t>79,83; 114,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,68; 103,08</t>
+          <t>69,99; 103,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,85; 116,65</t>
+          <t>86,48; 116,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,48; 79,05</t>
+          <t>55,14; 78,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,61; 100,4</t>
+          <t>68,1; 100,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,73; 85,39</t>
+          <t>62,13; 84,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,9; 94,96</t>
+          <t>59,64; 95,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57,5; 74,1</t>
+          <t>57,6; 73,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>78,09; 101,94</t>
+          <t>76,58; 101,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,73; 89,54</t>
+          <t>69,83; 89,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,4; 99,59</t>
+          <t>68,57; 99,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>99,89; 110,29</t>
+          <t>100,07; 110,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>119,12; 132,65</t>
+          <t>120,03; 132,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>111,33; 123,59</t>
+          <t>110,99; 123,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,32; 145,62</t>
+          <t>73,93; 145,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,61</t>
+          <t>67,85; 78,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,14; 92,21</t>
+          <t>80,29; 92,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,95; 98,76</t>
+          <t>85,7; 97,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>101,66; 119,47</t>
+          <t>100,18; 119,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,72; 98,27</t>
+          <t>90,54; 98,24</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>105,17; 114,86</t>
+          <t>105,29; 114,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>102,29; 110,95</t>
+          <t>102,24; 110,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,17; 131,4</t>
+          <t>94,34; 131,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
